--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/5_Aksaray_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/5_Aksaray_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8631E25-A707-48ED-9F1C-E46E9B24FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B69D492-34D8-4318-B219-B0297439E5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{D8E8A7D3-8D98-4FBC-8264-86D04145D5D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{FC97DC99-93E9-4C6D-BD55-A3ACAF608947}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -947,14 +947,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B698A692-1CA5-4F5F-8AD0-DFA95C6EEF27}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{153568EB-EB97-44D1-9E1D-12F5A095C5D5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{7BAB93B4-9AF0-4AFF-BCE5-7D47B7CD2676}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{8BCA7903-F2DA-46C0-9D74-C398362AB26C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2E485EA0-ECDB-403D-A4A0-67315FEB7393}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3E3B35AE-E260-4BDC-BD7C-C3047B4383B7}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{1F638B16-56EF-4114-AAF0-6FDBF13A9733}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{79E3AE18-0F09-4F61-A016-65D645CF678F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1ECD58C7-1993-4863-A6ED-F81982879EB6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8FB20AEB-4DA4-4FD7-A119-9A0B9D8C1623}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A668CBE2-046C-45AA-AA4C-BD77088C3FB3}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{215C526E-E4F0-447C-8C26-AF2CDC8BF017}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{41F0BC48-6C15-4FF5-8951-439EBF2E12A8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8A66ECC7-F49D-4A98-B570-C044C0C08C6B}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{003A699F-1FC7-4752-84DE-B49844C6AF0D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F4B9660A-916D-411B-A990-426BA68E719D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995CB8FB-3753-4E82-9118-1658B124FE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7FD23-A01C-45CE-B1FA-E0437B400FCE}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2572,18 +2572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E7E9D1D-9866-4FAB-BF86-15BE205CA737}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76FF9A0D-01A5-4149-A0CE-845A276D5BAB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{543BBA75-6DFC-4460-9200-19CA8BBE89F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D74D4F7-491D-4044-A318-3871B43D3C61}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4CB2E17F-0226-46C1-9B37-D984F7E0F12B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46C25A98-01D9-489E-A6EC-B26048C18CFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0330721-22EE-4EA7-8A17-0E9522453CBF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9F6D80A-A9DF-462A-BF35-127EE21005B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD23A43D-B8F9-4D8F-A99E-532E8703FAC7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F9C1ED5-F12E-46A8-BE77-ED7CE2F0F1D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AA2A8AD-5A9B-4B79-A2B1-3CE96220CA62}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBC80DF9-5770-4FF1-9116-422B9F4997C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DE69B1F-AB2A-41C1-BAA5-426B8BD01BC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91EB3BA3-C05E-4E7A-AF3B-C278DCF7AF00}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0F4195F-DCB6-491C-988C-018F16F7C5FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E746B00-865C-480E-B8DA-83330187FCEB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C831AEEB-F566-4A07-A728-1ADC21718F22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA5D724D-F2D7-4CAC-918C-05B6E2EA5E6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82A481AF-DFC0-4B89-8674-D7FCD1BBF110}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{704888E7-1611-4CD9-B547-5968E8AF4845}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{175DFB89-A252-4BFF-86AF-246C7FB0ABA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0378B6C-D33E-434E-8C65-7EDB5FB58C3A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{854F42D7-3ACD-4270-8AAD-79C380C1D197}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D06ACD99-F50C-401F-8343-380F45C2BA8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0CA08-5AD9-4646-AE11-4A8A843D3B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62038208-9649-4D11-8AC0-5E8E0660690E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3829,18 +3829,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E4166B1-7AE4-49D8-A172-53D46CAE610A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C473132-909A-470D-A8EE-29B3BDF4430B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A2B91CA0-A06B-405F-8838-00BDEB57FF2B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA5B9C12-93B2-4D78-8C82-324BBBEAFE7F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C551E7B0-42FF-463D-90D9-F90C5161A3FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EF3FFC6-C85F-4E76-B5B4-3E05184520E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B96D3DD0-5E19-4F5E-B350-E2875458C9E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2AAE896-CE7A-49ED-97C9-F920AB1A4FE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0DC0120-D9FA-4E22-973A-DDF7AAF327E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AED0D7AE-E629-46D4-9241-62A103149381}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DD79F35-9CBC-4D78-8371-8EBA0F682F54}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12C948C7-527A-45A2-9330-344E5915A285}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F75F8EB-3734-4ECD-9ED9-F52389A5925B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10BBBB0A-10C5-42B6-BDE2-EBC04D873BBD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA8EE909-6180-4B1E-ADD5-EBAD1859F420}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A67B694-7617-4CC5-817C-9BDC0AB5C8ED}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8827CD6A-AF9F-40F3-B39F-2A44FA98F133}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D315553A-DD35-4BF4-B095-E6F00DBC35F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{664A7F08-19EB-462E-A526-7EE2A2E86947}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8D145DD-FC7A-4B45-99DF-4B165F9A8141}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37D20661-F2E9-44E9-B2C0-FF118DFD6619}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53F76F98-EFD9-4996-AF62-BF9C7D2B045B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDF5D627-4D76-4854-8B1E-A734B42315B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA084E68-2465-41E4-BD2B-76931F9CBDD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3853,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D351EDD4-8708-47C5-8D0A-2D2D3FDFD581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C15FB6-FCAC-4467-99D5-DEA08B2975FF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5086,18 +5086,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E033549-F9EF-494E-B9AC-F954687E06F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4727473-A35A-41FB-A1FF-9090B4DF20DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA9610B3-379C-4D53-A9E6-EF5A661D6B7F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3BE6F6BF-DFD5-4797-B384-FCE5333C8FBD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D6D584E6-BBEE-4D7C-A58A-AC57B30C6C54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E09B3DA-B43A-43F9-9675-148A431CAA98}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD8BFB7D-651A-443F-9469-5E37648E1437}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDF6462B-070E-466B-AD52-3E7DE5F4E8BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{323B7458-1AC8-423D-B90D-A3364093DF5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB1D9111-FCA7-4803-AB96-15A0AAC764D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C11ADBC4-0007-448D-A47B-930192E1C915}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D68CE309-B25D-42E9-804A-283E1A1C5D6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F533BBD4-8910-4DD3-AE73-6959260CB05E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C17FC529-A2EB-4572-9245-00371DFC4C5A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E807158A-3FAD-41FB-A5CD-B4860230524A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C775756F-29F0-47FE-AC07-3ABF8294E7B9}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B79AA209-2468-4276-AF89-5A4B2096E31C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B97C0613-8622-427D-8C43-6377B4E76C1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42DA57BD-C108-4DF3-80CD-A88816774584}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A94D898-DB35-4B51-9EEE-4A0BBDCA07C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90BB3F90-00EF-40D9-9609-BF8A0CE2C42C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF45B587-127A-4F50-A4C2-908FC27F62AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB6A9D1B-0B6D-474F-8E49-049DDE9268BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26050DFF-5807-481D-935B-F538758A7082}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5110,7 +5110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C366C5CD-F4B1-4EC2-9433-C2660D4A9D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8C37A3-B85E-4FDD-B27D-718A85C65536}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6335,18 +6335,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BCA6A2B-884D-4894-8B2C-775215B69490}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7A71A4C-A318-414E-A6C6-78A51E252DFA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9FF8B3D-32D4-4CCC-8557-6FA24F43D25D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97F26E75-0FFC-4565-B449-0082783E40BB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0D7F7FFE-7108-4507-BCEB-6C89C3C889B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1378B491-D8EF-42D0-94CE-C6848882A2D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C78C3D1C-DDDC-4A79-949E-6D6030765F98}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB3DE59C-2233-40C4-9C6B-BCABC3793017}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{865926AB-107C-412C-9A91-F5C16D8007F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2DEC5A8-F12C-439F-87B7-7F7CA7A9886F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92BB941D-0E68-4260-966A-172E64107066}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3167F9D-334A-4F82-817A-BD9B3750B576}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B95F0C6B-9B67-4061-94B5-8D891A3F8EF2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE2B7703-8107-430A-B029-33E136D3B8EF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1FF64F7B-8DE4-4F21-A4CC-0A298AE8ABEF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B747DC0-C19F-4558-861A-13622CE90263}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{80C31349-98FF-4257-8553-0F991A13CCC4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7EAE2C7F-DDBF-49F0-84B8-ED0F789D1970}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{681F16D9-9109-4EF8-AEFA-773112BEB709}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9C7850E-45C4-44B8-B862-65CF41836CBD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FC77DB9-A275-4773-8634-228F3CD11C9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DCB85B4F-C8EA-42B7-A908-6634969FE1B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5FE2F2D-8524-462B-99BC-C963AE00E947}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60A9C974-8DCE-4631-97AE-7B9191D8A6DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6359,7 +6359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC78BD7-3878-433A-A5ED-9C0A18F47DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F91CF-491D-48CB-8A18-86B93F4C169E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7604,18 +7604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE58EAE6-D411-4755-9416-E7FBADD3793B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0EAAEF5-33FD-409C-B6C0-F3DC849B7E0A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87D7956A-700F-499D-9E16-D134BA9F13FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90D6D90C-3C5B-4F0A-9D1C-DB2F2F4B0A71}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6803743B-A16D-4E54-9659-07DE8720F777}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{589E03D9-D2CD-40BD-B7D9-D86EE07FBD4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30EA5CF0-7A8E-44C2-BDCC-7376AEB41509}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DE832D1-0DBF-4DC0-95AF-ACC500DDFB25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D54E9FEA-6541-4396-A5D5-C034D8CDC832}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E43AF1D8-A0D2-4C4C-9E9D-BDD0447C87AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FB9A517-7B5A-40FE-8279-3297F2658A16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD4F2256-EDBB-4BD7-8E7E-744396C3E904}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{914881D1-305F-4ECE-819F-E305DAAE11FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD31792A-E2CB-4379-BEFD-9F1BD2F49A63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D5CFC03-5E2E-4437-8B6F-1CD196882D15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3FBF374-9122-45E7-B63E-C1F966982BA2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9423A94D-C6AF-4D93-9439-91DD80D328DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{464867B6-5295-4B90-83A2-67984E76F578}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F50A221-E6EA-4BE1-BE2D-C2890821958B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4EE3850-F2AE-4A0B-B305-79C8A035DC24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86FAF4F0-1BF9-4A35-8327-090431952F40}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDAFA8B0-87CA-48C7-8950-01919C72986A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D03DE2F-F292-4721-A59B-A537DBED613A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{815A766B-7254-4C55-8B0D-86B29471C887}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7628,7 +7628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7E14A8-BC63-4B66-B87B-6A498329C208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB5B4F6-4E11-4CE9-B600-BE973ADA48AB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8873,18 +8873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F8D1F76-15D7-4EA0-9E79-FAB5501408C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{605DD8C0-BB36-433E-A0C4-DA135D98A367}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42A4F1A6-E7C1-418A-98FB-BB9A13515661}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E4006BC-A987-4E7E-9D7F-014FC0D66CA7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6A0E975B-07AB-4E16-B947-F7D32E7E98A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8177143-69CE-4D63-B56B-8101EE384B9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5B4C44D-475E-48B8-B787-602FDCB457B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9CFD078-CE9E-4797-A8A8-563677BD175C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDB10310-724E-4749-A82A-49E7953A0CF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{564F0780-927A-48EB-B65F-F0160133F0EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9F0845F-9FB3-468E-9112-EDCB7AC14577}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70B2BFDC-5DB5-43CC-8D87-828AA44AAB0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCD99FA5-2425-4FA2-9823-69E596812B71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E4A4042-123F-49E8-9B44-6975B7931F0F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8523F3F0-24E3-437D-83C8-1A857453BE0D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0805C1DB-52A5-456A-A516-B54C3992CA19}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C627F9EA-54F6-4152-843D-36939E100531}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCB7C490-940B-4C18-9CB5-E115BAFE265C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C9972EB-D796-45DE-B9E6-1875CBD80AFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC98A255-5237-4316-9208-76DBF7DB84F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADC7444D-F0EF-4BE5-966D-F5F049B6DAED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97E05F73-B7C6-41D5-806F-0ABF11E8CCD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C121DB0F-1FDC-4AFE-82FE-8E6BF780DEC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F327387-56C8-42F9-9A0D-F7A4932A5A05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8897,7 +8897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6500C7C5-C949-4229-8A1B-0C0F76B5825A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C448F0-9400-4BCB-BC59-90391DBF3481}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10142,18 +10142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17E95CEA-E875-46AE-B476-2A1BB2F98EBB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E18960DC-5FB1-4D15-ADD1-F62BADEA88F7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D8476FE-D74D-4A5A-977B-F8988F2B5515}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C010B082-493B-4CC9-B363-949E9B170CCC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A5E942FA-FBCF-434E-8DF2-D6E540F8F80C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A29FC6AF-A748-409D-93EC-E036B580B440}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F6B284D-315B-4FD2-8993-745F3240C805}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245D2BDD-749D-4A6B-A059-65425DAE89A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA445C53-B851-4FB5-B9C0-464B42361DBF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CEC963F-329E-4DAC-AC12-2ECC0EE3F1D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4B1E831-9501-454F-BB8B-278B18F607EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B3D3832-021D-4347-941F-E1F8228505E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3033E030-D0DA-4F97-AE6C-AFE27257E8ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C31BEE1F-BB7A-4973-85F9-26F963DC195A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2197847B-CE5D-4C54-B2FB-5C1838AB0CD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9E35B5D-3833-4700-9FA6-5C20CB1EF333}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7EB262C2-E0EA-44C2-8C8D-C19A76F1557F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CB24E9B-5902-4567-861C-4544B9404E7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAD8CE60-7C7A-45D9-B98D-A217FB3AB60D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADBDBE5B-2A60-43C3-BC3F-3714F89D1E39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C8B53A3-7069-41D6-8771-734C134B0D38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7071F31-6261-4A19-AC60-F0E4B1DE9F4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B9B7E29-E17D-462D-A591-D8954E8AB2A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8367A7A-1C13-4836-8810-A53AE0E8DC31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10166,7 +10166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6F9E4-CA1F-484B-A313-877B88D09025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C63BF-0648-4155-96F6-B6DD53373C72}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11411,18 +11411,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6866F5E0-0B04-4620-A170-E41B7F805053}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BDC3109-C878-4F1B-80D8-9F058D939BE4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70550144-4937-4D00-8477-497C6FB70DBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C53C2CD0-0B08-4E23-9E34-4AF0337942AB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BCF02E9D-7492-489C-8A87-80FB4FCEA17A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F70342C2-D261-4C4A-8567-109A64EEC2F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62C1F6C8-733D-49AF-8E6B-4F8518E46D17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C437AE9-3D3B-49B8-935D-4E2062EF6B96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E73E3AE-64B0-4F52-8D7B-AF568D8FC703}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83D4C931-98C2-469C-871A-34E0BD7AC103}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FB97DCB-3EF0-455F-8252-CD39E083E5DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83F88290-00DF-4B4D-8D1D-6574EB9F2728}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD07827A-44BC-4739-9297-7ECD32EA9E04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1265E84E-2CD3-4E0B-8E74-CC1C2C69D7F9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9B3A3C3-B34F-4EB8-85F2-AEDC60939962}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6560DAFA-34E2-44BB-8FAE-91001B393564}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{80E3342B-7A29-426B-A673-BC686A678C79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76A4F6F0-4A92-4118-8A9A-2D9EDFBBDC12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B8C7969-F878-4FBE-993B-F238ACCF972B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C73C3A2-1A4C-476A-BBE5-93786B0392D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01D595E4-CAA6-4598-BCBE-0D1B8593A50D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D690A5A9-92B4-4CBD-9745-FE7E0F215709}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6193514D-D04B-4974-A517-B889EFBC3332}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{983DC716-A6E9-43CA-A605-5527FADFF1F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11435,7 +11435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ECB95F-C09D-46EC-9EDC-91DE60FFF3DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7C0ED2-25A5-43FB-A25C-9CFB8DC0AB14}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12680,18 +12680,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA87B6E8-7054-4E64-8682-1276D9C35786}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4198B5BC-CBEC-4B78-87D6-85AC7E9FD3DB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F40E58D-25C4-4AD1-B836-5B8A81B74DAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77606E50-C406-4673-9851-3150B2227A0B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B5A0AEA5-BC4A-4E84-8970-F5D5675367B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8F9841F-5226-4301-BD35-0758E5FE2234}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D6520C5-DBA2-4366-9B6C-CF42C5423F70}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9357EEAD-81AD-4BD6-8E72-5A8C31FB0462}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D948F2F6-90BD-46CD-A121-EF7AE6030B79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{095569B7-51A6-4B48-8686-9310C99B2983}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CEAE9E3-A0E4-4B0A-8C48-337FF9A8F93F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A053FCBD-81D3-46F2-B325-EEBFC08B8F80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{908D48FD-4229-4C73-8918-52CD8AAB3A4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9BE0860-EFB8-4EF6-80D8-A377C7AE7636}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4C255D1-8F79-4496-B259-60E1E877ACD5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB892E93-53D8-4D6B-BC83-C0AC8C93197F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B3F14C31-E0BC-4391-9483-FF03C214FFEF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CB64E13-DFCC-43CF-A1DD-FBEC60C53148}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17514CE1-3282-4676-94CB-DA674D9767D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{888C9136-78A7-4250-9B4D-8CCE1B137905}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B186AEB6-8E5F-411E-8ED4-F281A27446F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CA6F022-CF63-463A-A390-8D23B9D0CD9A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5D97E45-9ED3-4152-9204-FA27B4CB1824}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2D8EF26-9C26-46E7-9320-1F29558E6BB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12704,7 +12704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F20042-3AB9-43DC-A9BC-4E850065163C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DA6BDF-E6EB-4074-96DD-5B71D7840EF4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13949,18 +13949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF1F1D77-AF2A-48BD-BCA7-FAA21B228282}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27030C7E-5C5E-4DE0-94E3-54050B6EF472}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEED21A0-ABD2-474D-B90A-7902D5124D7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B390B05-F35E-4875-BE00-2C50D8FD2598}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0994C1C6-A63B-4450-BF57-BEECD9124C98}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70A7655A-0698-47EA-83C0-2983C1D0B024}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4997C62-216E-40F7-9E76-C60410C495F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A98A3321-FB1E-47B4-9FCC-2947B382334B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0237E30-7301-47A4-8F9A-B45D76C06FDD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AD5775E-85E9-47BF-AB90-8FCCA564992F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4EDCDD6-0FD9-4094-9537-3808182780FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C48990F3-1217-4A47-AFE8-10377C2FB127}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{136F4CF0-1AF3-4CCA-9C81-DFF448DE0BDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68A80C99-45B3-44EA-832E-EB868FA3C740}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5227F3C5-0DC3-4868-B125-C52F5801DDBE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35C7673F-3AA7-4392-8A68-169316ECF8E4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D6953706-4722-48A5-95D4-B5F5A19AD022}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{722DEA7D-3F08-4252-B75B-E56DCFAF2815}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{135EA8C0-C64F-466A-A5A8-092E47D75440}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E619591C-3F5D-4EF3-96B6-C74D169C6256}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C30A158-56E3-44EB-88F3-F62BACEABD55}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{70A19149-E3D4-4E63-B3A6-8C7B5A31C224}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A576AFD-16C6-4E4C-AFE3-884ABDB6C6F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D516950E-F516-434C-B366-05A4CF980973}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13973,7 +13973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5892170-E651-418D-A5C1-D6074D762185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7D3C1-CED9-4FFC-9824-0CA604E450CE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15214,18 +15214,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C9215CC-F3E9-4350-9890-032C81D4C915}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35911FF3-6CCB-4F74-88C6-8312F1B7A95F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{423771DC-C627-4AC1-81CE-DF44C6FEC9FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7027B7D6-A3CF-462F-AA3B-8371B5CBED0C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C69BB60B-7E90-425A-8FFD-C9A430DC4BDE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6F5CEF8-0A83-4B65-BD85-272536B87DEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD704402-3B0C-433B-992E-680A1CF1F598}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67BDB155-4701-4BEF-9A49-81D07F4769C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A84D6FB1-8F45-4740-A9E0-A9637A4AA212}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9FA3385-D04F-4C68-B551-17B9EC3280B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{603D7147-FDB3-4472-98EE-262C326FEBD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5350B922-FA86-4549-8FE9-07DC8F42C6F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FEB9CE1-9C5F-4C03-BBB6-44C77BBA6B21}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74AEB99F-D80C-4937-8985-37A0BBB9E8E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC943C48-AD28-47D4-8A12-F3F7A6E498F8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D41F54F-5ADB-4E04-B3C9-677C9C68170D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7450FD5D-55EA-4174-943C-9F4B44E0DDDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A28A3584-0D4A-4F8D-92D5-0C5EF36CF072}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD4F7A61-A55A-46CA-85CC-60CB40B5C2AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5866B161-ACB6-4A26-A702-D4E7B5C92372}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A0EDB66-426E-47CD-80D6-A98AC023A208}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69DC9A7E-C503-4163-8A18-3B5F359464B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7D3BCDD-3F7C-4219-8751-95646B619150}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFB94D02-6B9A-4F8F-B1D3-397BE9762674}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15238,7 +15238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F2CECE-8256-49E4-B9AA-68ACF8A3AE67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC0AE85-779F-4DCA-A227-5E2BABFF5670}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16479,18 +16479,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A97C87A-94DD-445C-878A-745A713FEF51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE547369-B0FF-4566-A937-7AD25F22150F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A92B0B5C-A510-4D75-9AAC-2512F2B619B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69C3AE86-F2AF-4581-933D-2657491BBA3B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F2DB50E1-0EB1-4FFB-9A7F-F4C765EE7AFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFAEAD78-85CA-4BC5-8285-F13D31713EF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32953D84-69E8-439F-8615-97513CBABA55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70A5D9D5-6B49-43FB-8A02-43EF2114F1FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3B949E3-94ED-497B-92F9-57CEDC9F5BB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3733456A-72C9-4A2F-BC60-D77A27FA87E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54E0F124-2C23-47D2-A57A-981487E24D09}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2437BD6-1CD0-4255-A614-FA658F6FD5F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C154785-BC5B-4749-81BF-CD0AD1B09121}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{158F8EDC-88EF-4235-A885-EC3ECBEF7836}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8878F71B-0F9B-4A9E-96A2-F094494B3FC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{839178F2-A53B-4356-A4C1-1CEDF4808438}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{651DC5B0-6763-4D07-8805-53949FD664EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87AFEEF8-B295-48B1-A3C8-E56263CA4205}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{176B3FB2-9F4B-49D2-ADAB-0EBB8E61A65D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A81E35E-8C32-4992-B30B-D92A19162C65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11E462EC-AAA6-4413-9668-7EB229611862}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFA45ED0-F2EF-4859-B5CE-9BA543CA6B94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C9F3817-4D80-48EF-92B6-9FB0D6AFFFD2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80F10DE0-B540-45B9-ACCD-1055614C2192}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
